--- a/data/foods.xlsx
+++ b/data/foods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
   <si>
     <t>Weight</t>
   </si>
@@ -783,7 +783,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:AJ18"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,7 +2867,9 @@
       <c r="A22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
@@ -2934,6 +2936,12 @@
       <c r="X22" s="2">
         <f>ROW()</f>
         <v>22</v>
+      </c>
+      <c r="Y22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="AA22" s="23" t="s">
         <v>1</v>
@@ -3036,6 +3044,14 @@
       <c r="W23" s="5">
         <v>0.47</v>
       </c>
+      <c r="Y23" s="25" t="str">
+        <f>IFERROR(HLOOKUP(Y$22,$A$22:$W$29,1+ROW()-$X$22,0),"")</f>
+        <v>Milk whole</v>
+      </c>
+      <c r="Z23" s="25" t="str">
+        <f>IFERROR(HLOOKUP(Z$22,$A$22:$W$29,1+ROW()-$X$22,0),"")</f>
+        <v>Dairy</v>
+      </c>
       <c r="AA23" s="25">
         <f>IFERROR(HLOOKUP(AA$22,$C$22:$W$28,1+ROW()-$X$22,0)/$D23*100,"")</f>
         <v>60.077519379844958</v>
@@ -3147,44 +3163,52 @@
       <c r="W24" s="5">
         <v>0.42</v>
       </c>
+      <c r="Y24" s="25" t="str">
+        <f t="shared" ref="Y24:Z26" si="4">IFERROR(HLOOKUP(Y$22,$A$22:$W$29,1+ROW()-$X$22,0),"")</f>
+        <v>Yoghurt - plain</v>
+      </c>
+      <c r="Z24" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>Dairy</v>
+      </c>
       <c r="AA24" s="25">
-        <f t="shared" ref="AA24:AJ26" si="4">IFERROR(HLOOKUP(AA$22,$C$22:$W$28,1+ROW()-$X$22,0)/$D24*100,"")</f>
+        <f t="shared" ref="AA24:AJ26" si="5">IFERROR(HLOOKUP(AA$22,$C$22:$W$28,1+ROW()-$X$22,0)/$D24*100,"")</f>
         <v>71.270718232044189</v>
       </c>
       <c r="AB24" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.972375690607735</v>
       </c>
       <c r="AC24" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6298342541436464</v>
       </c>
       <c r="AD24" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7624309392265194</v>
       </c>
       <c r="AE24" s="25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF24" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>161.32596685082873</v>
       </c>
       <c r="AG24" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5248618784530391E-2</v>
       </c>
       <c r="AH24" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8232044198895028</v>
       </c>
       <c r="AI24" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4198895027624303</v>
       </c>
       <c r="AJ24" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.325966850828728</v>
       </c>
     </row>
@@ -3258,44 +3282,52 @@
       <c r="W25" s="5">
         <v>0.19</v>
       </c>
+      <c r="Y25" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>Cheese- cheddar</v>
+      </c>
+      <c r="Z25" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>Dairy</v>
+      </c>
       <c r="AA25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>404</v>
       </c>
       <c r="AB25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AC25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AD25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="AE25" s="25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>722</v>
       </c>
       <c r="AG25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="AH25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="AI25" s="25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AJ25" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>622</v>
       </c>
     </row>
@@ -3366,44 +3398,52 @@
       <c r="W26" s="5">
         <v>0.5</v>
       </c>
+      <c r="Y26" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>Egg, poached</v>
+      </c>
+      <c r="Z26" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v>Dairy</v>
+      </c>
       <c r="AA26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="AB26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AC26" s="25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AE26" s="25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>430</v>
       </c>
       <c r="AG26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="AH26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
       <c r="AI26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8000000000000003</v>
       </c>
     </row>

--- a/data/foods.xlsx
+++ b/data/foods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="74">
   <si>
     <t>Weight</t>
   </si>
@@ -192,6 +192,60 @@
   </si>
   <si>
     <t>Potato, boiled, flesh and skin</t>
+  </si>
+  <si>
+    <t>Thiamin</t>
+  </si>
+  <si>
+    <t>Niacin</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Macaroni</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Quinoa</t>
+  </si>
+  <si>
+    <t>Vitamin</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Monounsaturated Fat</t>
+  </si>
+  <si>
+    <t>Polyunsaturated Fat</t>
+  </si>
+  <si>
+    <t>Sirloin Steak</t>
+  </si>
+  <si>
+    <t>Pork Sausage</t>
+  </si>
+  <si>
+    <t>Chicken Roast</t>
+  </si>
+  <si>
+    <t>75g</t>
+  </si>
+  <si>
+    <t>Raspberries</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Ham</t>
   </si>
 </sst>
 </file>
@@ -777,13 +831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +859,7 @@
     <col min="32" max="32" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="37" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -1516,53 +1570,122 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Y7" s="25">
+      <c r="A7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3">
+        <v>141</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>98</v>
+      </c>
+      <c r="P7" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>19</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>8</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>14</v>
+      </c>
+      <c r="V7" s="3">
+        <v>17</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="25">
+        <v>Raspberries</v>
+      </c>
+      <c r="Z7" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="25" t="str">
+        <v>Fruit</v>
+      </c>
+      <c r="AA7" s="25">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AC7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>52.307692307692314</v>
+      </c>
+      <c r="AB7" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="AC7" s="25">
+        <f t="shared" si="0"/>
+        <v>12.307692307692308</v>
       </c>
       <c r="AD7" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AF7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AG7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AE7" s="25">
+        <f t="shared" si="0"/>
+        <v>6.4615384615384617</v>
+      </c>
+      <c r="AF7" s="25">
+        <f t="shared" si="0"/>
+        <v>24.615384615384617</v>
+      </c>
+      <c r="AG7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
       </c>
       <c r="AH7" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AJ7" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AI7" s="25">
+        <f t="shared" si="0"/>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="AJ7" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -3045,51 +3168,51 @@
         <v>0.47</v>
       </c>
       <c r="Y23" s="25" t="str">
-        <f>IFERROR(HLOOKUP(Y$22,$A$22:$W$29,1+ROW()-$X$22,0),"")</f>
+        <f t="shared" ref="Y23:Z26" si="3">IFERROR(HLOOKUP(Y$22,$A$22:$W$27,1+ROW()-$X$22,0),"")</f>
         <v>Milk whole</v>
       </c>
       <c r="Z23" s="25" t="str">
-        <f>IFERROR(HLOOKUP(Z$22,$A$22:$W$29,1+ROW()-$X$22,0),"")</f>
+        <f t="shared" si="3"/>
         <v>Dairy</v>
       </c>
       <c r="AA23" s="25">
-        <f>IFERROR(HLOOKUP(AA$22,$C$22:$W$28,1+ROW()-$X$22,0)/$D23*100,"")</f>
+        <f t="shared" ref="AA23:AJ26" si="4">IFERROR(HLOOKUP(AA$22,$C$22:$W$27,1+ROW()-$X$22,0)/$D23*100,"")</f>
         <v>60.077519379844958</v>
       </c>
       <c r="AB23" s="25">
-        <f t="shared" ref="AB23:AJ23" si="3">IFERROR(HLOOKUP(AB$22,$C$22:$W$28,1+ROW()-$X$22,0)/$D23*100,"")</f>
+        <f t="shared" si="4"/>
         <v>3.1007751937984498</v>
       </c>
       <c r="AC23" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6511627906976747</v>
       </c>
       <c r="AD23" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1007751937984498</v>
       </c>
       <c r="AE23" s="25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AF23" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112.79069767441861</v>
       </c>
       <c r="AG23" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.875968992248062E-2</v>
       </c>
       <c r="AH23" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0930232558139537</v>
       </c>
       <c r="AI23" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4263565891472867</v>
       </c>
       <c r="AJ23" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.922480620155035</v>
       </c>
     </row>
@@ -3164,51 +3287,51 @@
         <v>0.42</v>
       </c>
       <c r="Y24" s="25" t="str">
-        <f t="shared" ref="Y24:Z26" si="4">IFERROR(HLOOKUP(Y$22,$A$22:$W$29,1+ROW()-$X$22,0),"")</f>
+        <f t="shared" si="3"/>
         <v>Yoghurt - plain</v>
       </c>
       <c r="Z24" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>Dairy</v>
+      </c>
+      <c r="AA24" s="25">
         <f t="shared" si="4"/>
-        <v>Dairy</v>
-      </c>
-      <c r="AA24" s="25">
-        <f t="shared" ref="AA24:AJ26" si="5">IFERROR(HLOOKUP(AA$22,$C$22:$W$28,1+ROW()-$X$22,0)/$D24*100,"")</f>
         <v>71.270718232044189</v>
       </c>
       <c r="AB24" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.972375690607735</v>
       </c>
       <c r="AC24" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.6298342541436464</v>
       </c>
       <c r="AD24" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.7624309392265194</v>
       </c>
       <c r="AE24" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AF24" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>161.32596685082873</v>
       </c>
       <c r="AG24" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.5248618784530391E-2</v>
       </c>
       <c r="AH24" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.8232044198895028</v>
       </c>
       <c r="AI24" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.4198895027624303</v>
       </c>
       <c r="AJ24" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.325966850828728</v>
       </c>
     </row>
@@ -3283,51 +3406,51 @@
         <v>0.19</v>
       </c>
       <c r="Y25" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>Cheese- cheddar</v>
+      </c>
+      <c r="Z25" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>Dairy</v>
+      </c>
+      <c r="AA25" s="25">
         <f t="shared" si="4"/>
-        <v>Cheese- cheddar</v>
-      </c>
-      <c r="Z25" s="25" t="str">
+        <v>404</v>
+      </c>
+      <c r="AB25" s="25">
         <f t="shared" si="4"/>
-        <v>Dairy</v>
-      </c>
-      <c r="AA25" s="25">
-        <f t="shared" si="5"/>
-        <v>404</v>
-      </c>
-      <c r="AB25" s="25">
-        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="AC25" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AD25" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="AE25" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AF25" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>722</v>
       </c>
       <c r="AG25" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="AH25" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="AI25" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AJ25" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>622</v>
       </c>
     </row>
@@ -3399,87 +3522,1451 @@
         <v>0.5</v>
       </c>
       <c r="Y26" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>Egg, poached</v>
+      </c>
+      <c r="Z26" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>Dairy</v>
+      </c>
+      <c r="AA26" s="25">
         <f t="shared" si="4"/>
-        <v>Egg, poached</v>
-      </c>
-      <c r="Z26" s="25" t="str">
+        <v>148</v>
+      </c>
+      <c r="AB26" s="25">
         <f t="shared" si="4"/>
-        <v>Dairy</v>
-      </c>
-      <c r="AA26" s="25">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD26" s="25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AE26" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF26" s="25">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="AG26" s="25">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="AH26" s="25">
+        <f t="shared" si="4"/>
+        <v>3.8</v>
+      </c>
+      <c r="AI26" s="25">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AJ26" s="25">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:36" ht="97.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X29" s="2">
+        <f>ROW()</f>
+        <v>29</v>
+      </c>
+      <c r="Y29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA29" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
+        <v>83</v>
+      </c>
+      <c r="E30" s="3">
+        <v>109</v>
+      </c>
+      <c r="F30" s="3">
+        <v>454</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>24</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>8</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>29</v>
+      </c>
+      <c r="R30" s="3">
+        <v>10</v>
+      </c>
+      <c r="S30" s="3">
+        <v>36</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W30" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="25" t="str">
+        <f>IFERROR(HLOOKUP(Y$29,$A$29:$W$36,1+ROW()-$X$29,0),"")</f>
+        <v>Rice</v>
+      </c>
+      <c r="Z30" s="25">
+        <f>IFERROR(HLOOKUP(Z$29,$A$29:$W$36,1+ROW()-$X$29,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="25">
+        <f>IFERROR(HLOOKUP(AA$29,$C$29:$W$35,1+ROW()-$X$29,0)/$D30*100,"")</f>
+        <v>131.32530120481925</v>
+      </c>
+      <c r="AB30" s="25">
+        <f t="shared" ref="AB30:AJ33" si="5">IFERROR(HLOOKUP(AB$29,$C$29:$W$35,1+ROW()-$X$29,0)/$D30*100,"")</f>
+        <v>2.4096385542168677</v>
+      </c>
+      <c r="AC30" s="25">
         <f t="shared" si="5"/>
+        <v>28.915662650602407</v>
+      </c>
+      <c r="AD30" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE30" s="25">
+        <f t="shared" si="5"/>
+        <v>0.48192771084337355</v>
+      </c>
+      <c r="AF30" s="25">
+        <f t="shared" si="5"/>
+        <v>9.6385542168674707</v>
+      </c>
+      <c r="AG30" s="25">
+        <f t="shared" si="5"/>
+        <v>0.24096385542168677</v>
+      </c>
+      <c r="AH30" s="25">
+        <f t="shared" si="5"/>
+        <v>0.12048192771084339</v>
+      </c>
+      <c r="AI30" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="25">
+        <f t="shared" si="5"/>
+        <v>1.2048192771084338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="3">
         <v>148</v>
       </c>
-      <c r="AB26" s="25">
+      <c r="E31" s="3">
+        <v>209</v>
+      </c>
+      <c r="F31" s="3">
+        <v>873</v>
+      </c>
+      <c r="G31" s="3">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3">
+        <v>42</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>10</v>
+      </c>
+      <c r="O31" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>46</v>
+      </c>
+      <c r="R31" s="3">
+        <v>27</v>
+      </c>
+      <c r="S31" s="3">
+        <v>80</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V31" s="3">
+        <v>4</v>
+      </c>
+      <c r="W31" s="5">
+        <v>184</v>
+      </c>
+      <c r="Y31" s="25" t="str">
+        <f t="shared" ref="Y31:Z33" si="6">IFERROR(HLOOKUP(Y$29,$A$29:$W$36,1+ROW()-$X$29,0),"")</f>
+        <v>Macaroni</v>
+      </c>
+      <c r="Z31" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="25">
+        <f t="shared" ref="AA31:AA33" si="7">IFERROR(HLOOKUP(AA$29,$C$29:$W$35,1+ROW()-$X$29,0)/$D31*100,"")</f>
+        <v>141.2162162162162</v>
+      </c>
+      <c r="AB31" s="25">
         <f t="shared" si="5"/>
+        <v>4.7297297297297298</v>
+      </c>
+      <c r="AC31" s="25">
+        <f t="shared" si="5"/>
+        <v>28.378378378378379</v>
+      </c>
+      <c r="AD31" s="25">
+        <f t="shared" si="5"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="AE31" s="25">
+        <f t="shared" si="5"/>
+        <v>1.2162162162162162</v>
+      </c>
+      <c r="AF31" s="25">
+        <f t="shared" si="5"/>
+        <v>6.756756756756757</v>
+      </c>
+      <c r="AG31" s="25">
+        <f t="shared" si="5"/>
+        <v>1.4189189189189191</v>
+      </c>
+      <c r="AH31" s="25">
+        <f t="shared" si="5"/>
+        <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="AI31" s="25">
+        <f t="shared" si="5"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="AJ31" s="25">
+        <f t="shared" si="5"/>
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="3">
+        <v>148</v>
+      </c>
+      <c r="E32" s="3">
+        <v>209</v>
+      </c>
+      <c r="F32" s="3">
+        <v>873</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3">
+        <v>42</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>46</v>
+      </c>
+      <c r="R32" s="3">
+        <v>27</v>
+      </c>
+      <c r="S32" s="3">
+        <v>80</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V32" s="3">
+        <v>4</v>
+      </c>
+      <c r="W32" s="5">
+        <v>184</v>
+      </c>
+      <c r="Y32" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Spaghetti</v>
+      </c>
+      <c r="Z32" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="25">
+        <f t="shared" si="7"/>
+        <v>141.2162162162162</v>
+      </c>
+      <c r="AB32" s="25">
+        <f t="shared" si="5"/>
+        <v>4.7297297297297298</v>
+      </c>
+      <c r="AC32" s="25">
+        <f t="shared" si="5"/>
+        <v>28.378378378378379</v>
+      </c>
+      <c r="AD32" s="25">
+        <f t="shared" si="5"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="AE32" s="25">
+        <f t="shared" si="5"/>
+        <v>1.6891891891891893</v>
+      </c>
+      <c r="AF32" s="25">
+        <f t="shared" si="5"/>
+        <v>6.756756756756757</v>
+      </c>
+      <c r="AG32" s="25">
+        <f t="shared" si="5"/>
+        <v>1.4189189189189191</v>
+      </c>
+      <c r="AH32" s="25">
+        <f t="shared" si="5"/>
+        <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="AI32" s="25">
+        <f t="shared" si="5"/>
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="AJ32" s="25">
+        <f t="shared" si="5"/>
+        <v>0.67567567567567566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>73</v>
+      </c>
+      <c r="E33" s="3">
+        <v>70</v>
+      </c>
+      <c r="F33" s="3">
+        <v>293</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>13</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>11</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="P33" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>138</v>
+      </c>
+      <c r="R33" s="3">
+        <v>39</v>
+      </c>
+      <c r="S33" s="3">
+        <v>77</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U33" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1</v>
+      </c>
+      <c r="W33" s="5">
+        <v>9</v>
+      </c>
+      <c r="Y33" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Quinoa</v>
+      </c>
+      <c r="Z33" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="25">
+        <f t="shared" si="7"/>
+        <v>95.890410958904098</v>
+      </c>
+      <c r="AB33" s="25">
+        <f t="shared" si="5"/>
+        <v>2.7397260273972601</v>
+      </c>
+      <c r="AC33" s="25">
+        <f t="shared" si="5"/>
+        <v>17.80821917808219</v>
+      </c>
+      <c r="AD33" s="25">
+        <f t="shared" si="5"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="AE33" s="25">
+        <f t="shared" si="5"/>
+        <v>1.7808219178082192</v>
+      </c>
+      <c r="AF33" s="25">
+        <f t="shared" si="5"/>
+        <v>15.068493150684931</v>
+      </c>
+      <c r="AG33" s="25">
+        <f t="shared" si="5"/>
+        <v>2.3287671232876712</v>
+      </c>
+      <c r="AH33" s="25">
+        <f t="shared" si="5"/>
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="AI33" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="25">
+        <f t="shared" si="5"/>
+        <v>5.4794520547945202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:36" ht="108" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AC26" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AD26" s="25">
-        <f t="shared" si="5"/>
+      <c r="S35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X35" s="2">
+        <f>ROW()</f>
+        <v>35</v>
+      </c>
+      <c r="Y35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA35" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AE26" s="25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AF26" s="25">
-        <f t="shared" si="5"/>
-        <v>430</v>
-      </c>
-      <c r="AG26" s="25">
-        <f t="shared" si="5"/>
+      <c r="AD35" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE35" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ35" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="3">
+        <v>24</v>
+      </c>
+      <c r="E36" s="3">
+        <v>130</v>
+      </c>
+      <c r="F36" s="3">
+        <v>543</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="K36" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M36" s="3">
+        <v>26</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="O36" s="3">
+        <v>554</v>
+      </c>
+      <c r="P36" s="3">
+        <v>136</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>8</v>
+      </c>
+      <c r="R36" s="3">
+        <v>128</v>
+      </c>
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y36" s="25" t="str">
+        <f>IFERROR(HLOOKUP(Y$35,$A$35:$W$45,1+ROW()-$X$35,0),"")</f>
+        <v>Bacon</v>
+      </c>
+      <c r="Z36" s="25" t="str">
+        <f>IFERROR(HLOOKUP(Z$35,$A$35:$W$45,1+ROW()-$X$35,0),"")</f>
+        <v>Meat</v>
+      </c>
+      <c r="AA36" s="25">
+        <f>IFERROR(HLOOKUP(AA$35,$C$35:$W$42,1+ROW()-$X$35,0)/$D36*100,"")</f>
+        <v>541.66666666666674</v>
+      </c>
+      <c r="AB36" s="25">
+        <f t="shared" ref="AB36:AJ36" si="8">IFERROR(HLOOKUP(AB$35,$C$35:$W$42,1+ROW()-$X$35,0)/$D36*100,"")</f>
+        <v>37.5</v>
+      </c>
+      <c r="AC36" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD36" s="25">
+        <f t="shared" si="8"/>
+        <v>41.666666666666671</v>
+      </c>
+      <c r="AE36" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF36" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG36" s="25">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="AH36" s="25">
+        <f t="shared" si="8"/>
+        <v>13.749999999999998</v>
+      </c>
+      <c r="AI36" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ36" s="25">
+        <f t="shared" si="8"/>
+        <v>2308.333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="3">
+        <v>75</v>
+      </c>
+      <c r="E37" s="3">
+        <v>156</v>
+      </c>
+      <c r="F37" s="3">
+        <v>653</v>
+      </c>
+      <c r="G37" s="3">
+        <v>25</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K37" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M37" s="3">
+        <v>58</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="O37" s="3">
+        <v>44</v>
+      </c>
+      <c r="P37" s="3">
+        <v>243</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>19</v>
+      </c>
+      <c r="R37" s="3">
+        <v>152</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U37" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="V37" s="3">
+        <v>5</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y37" s="25" t="str">
+        <f t="shared" ref="Y37:Z41" si="9">IFERROR(HLOOKUP(Y$35,$A$35:$W$45,1+ROW()-$X$35,0),"")</f>
+        <v>Sirloin Steak</v>
+      </c>
+      <c r="Z37" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Meat</v>
+      </c>
+      <c r="AA37" s="25">
+        <f t="shared" ref="AA37:AJ41" si="10">IFERROR(HLOOKUP(AA$35,$C$35:$W$42,1+ROW()-$X$35,0)/$D37*100,"")</f>
+        <v>208</v>
+      </c>
+      <c r="AB37" s="25">
+        <f t="shared" si="10"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AC37" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="25">
+        <f t="shared" si="10"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AE37" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF37" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG37" s="25">
+        <f t="shared" si="10"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="AH37" s="25">
+        <f t="shared" si="10"/>
+        <v>2.9333333333333336</v>
+      </c>
+      <c r="AI37" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ37" s="25">
+        <f t="shared" si="10"/>
+        <v>58.666666666666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>13</v>
+      </c>
+      <c r="E38" s="3">
+        <v>35</v>
+      </c>
+      <c r="F38" s="3">
+        <v>145</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M38" s="3">
+        <v>11</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O38" s="3">
+        <v>102</v>
+      </c>
+      <c r="P38" s="3">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>2</v>
+      </c>
+      <c r="R38" s="3">
+        <v>24</v>
+      </c>
+      <c r="S38" s="3">
+        <v>2</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y38" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Pork Sausage</v>
+      </c>
+      <c r="Z38" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Meat</v>
+      </c>
+      <c r="AA38" s="25">
+        <f t="shared" si="10"/>
+        <v>269.23076923076923</v>
+      </c>
+      <c r="AB38" s="25">
+        <f t="shared" si="10"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="AC38" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD38" s="25">
+        <f t="shared" si="10"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="AE38" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF38" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG38" s="25">
+        <f t="shared" si="10"/>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="AH38" s="25">
+        <f t="shared" si="10"/>
+        <v>6.9230769230769234</v>
+      </c>
+      <c r="AI38" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ38" s="25">
+        <f t="shared" si="10"/>
+        <v>784.61538461538453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="3">
+        <v>75</v>
+      </c>
+      <c r="E39" s="3">
+        <v>142</v>
+      </c>
+      <c r="F39" s="3">
+        <v>593</v>
+      </c>
+      <c r="G39" s="3">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>7</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="K39" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="M39" s="3">
+        <v>63</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O39" s="3">
+        <v>45</v>
+      </c>
+      <c r="P39" s="3">
+        <v>241</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>20</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" s="3">
+        <v>20</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="V39" s="3">
+        <v>3</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Y39" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Chicken Roast</v>
+      </c>
+      <c r="Z39" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Meat</v>
+      </c>
+      <c r="AA39" s="25">
+        <f t="shared" si="10"/>
+        <v>189.33333333333334</v>
+      </c>
+      <c r="AB39" s="25">
+        <f t="shared" si="10"/>
+        <v>25.333333333333336</v>
+      </c>
+      <c r="AC39" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="25">
+        <f t="shared" si="10"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="AE39" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF39" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG39" s="25">
+        <f t="shared" si="10"/>
+        <v>0.53333333333333344</v>
+      </c>
+      <c r="AH39" s="25">
+        <f t="shared" si="10"/>
+        <v>2.4</v>
+      </c>
+      <c r="AI39" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ39" s="25">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="3">
+        <v>75</v>
+      </c>
+      <c r="E40" s="3">
+        <v>182</v>
+      </c>
+      <c r="F40" s="3">
+        <v>762</v>
+      </c>
+      <c r="G40" s="3">
+        <v>21</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>10</v>
+      </c>
+      <c r="J40" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="M40" s="3">
+        <v>80</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="O40" s="3">
         <v>54</v>
       </c>
-      <c r="AH26" s="25">
-        <f t="shared" si="5"/>
-        <v>3.8</v>
-      </c>
-      <c r="AI26" s="25">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="AJ26" s="25">
-        <f t="shared" si="5"/>
-        <v>1.8000000000000003</v>
+      <c r="P40" s="3">
+        <v>193</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>17</v>
+      </c>
+      <c r="R40" s="3">
+        <v>125</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U40" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="V40" s="3">
+        <v>13</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Y40" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Lamb</v>
+      </c>
+      <c r="Z40" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Meat</v>
+      </c>
+      <c r="AA40" s="25">
+        <f t="shared" si="10"/>
+        <v>242.66666666666669</v>
+      </c>
+      <c r="AB40" s="25">
+        <f t="shared" si="10"/>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="AC40" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="25">
+        <f t="shared" si="10"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="AE40" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF40" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG40" s="25">
+        <f t="shared" si="10"/>
+        <v>2.1333333333333337</v>
+      </c>
+      <c r="AH40" s="25">
+        <f t="shared" si="10"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AI40" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ40" s="25">
+        <f t="shared" si="10"/>
+        <v>72</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>56</v>
+      </c>
+      <c r="E41" s="3">
+        <v>91</v>
+      </c>
+      <c r="F41" s="3">
+        <v>382</v>
+      </c>
+      <c r="G41" s="3">
+        <v>9</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M41" s="3">
+        <v>32</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O41" s="3">
+        <v>730</v>
+      </c>
+      <c r="P41" s="3">
+        <v>161</v>
+      </c>
+      <c r="Q41" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
-        <v>44</v>
+      <c r="R41" s="3">
+        <v>86</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="V41" s="5">
+        <v>4</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y41" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Ham</v>
+      </c>
+      <c r="Z41" s="25" t="str">
+        <f t="shared" si="9"/>
+        <v>Meat</v>
+      </c>
+      <c r="AA41" s="25">
+        <f t="shared" si="10"/>
+        <v>162.5</v>
+      </c>
+      <c r="AB41" s="25">
+        <f t="shared" si="10"/>
+        <v>16.071428571428573</v>
+      </c>
+      <c r="AC41" s="25">
+        <f t="shared" si="10"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="AD41" s="25">
+        <f t="shared" si="10"/>
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="AE41" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AF41" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AG41" s="25">
+        <f t="shared" si="10"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="AH41" s="25">
+        <f t="shared" si="10"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="AI41" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AJ41" s="25">
+        <f t="shared" si="10"/>
+        <v>1303.5714285714287</v>
       </c>
     </row>
   </sheetData>
